--- a/LogBook.xlsx
+++ b/LogBook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patri\OneDrive\Documenten\Github\PRTA_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EF00661-66C1-4070-8950-049B619BE0D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E61201-7927-42E1-9E93-21DE41946DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A05CE3E6-B1FC-4DD2-933B-AF1CD9A8A2B5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Patricia</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>07.05.2025</t>
+  </si>
+  <si>
+    <t>Github, Logboek</t>
   </si>
 </sst>
 </file>
@@ -448,6 +451,9 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LogBook.xlsx
+++ b/LogBook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patri\OneDrive\Documenten\Github\PRTA_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E61201-7927-42E1-9E93-21DE41946DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0230A589-7A18-4F39-8D69-6125366AC20D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A05CE3E6-B1FC-4DD2-933B-AF1CD9A8A2B5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Patricia</t>
   </si>
@@ -50,7 +50,13 @@
     <t>07.05.2025</t>
   </si>
   <si>
-    <t>Github, Logboek</t>
+    <t>Github, Logbook, programma van eisen</t>
+  </si>
+  <si>
+    <t>Character Development, map design</t>
+  </si>
+  <si>
+    <t>unity tutorials, map design</t>
   </si>
 </sst>
 </file>
@@ -425,14 +431,14 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="24.77734375" customWidth="1"/>
-    <col min="3" max="3" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="33.109375" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" customWidth="1"/>
     <col min="4" max="4" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -454,6 +460,12 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LogBook.xlsx
+++ b/LogBook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patri\OneDrive\Documenten\Github\PRTA_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0230A589-7A18-4F39-8D69-6125366AC20D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13598FEB-D111-4EDC-84B9-23172CA443FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A05CE3E6-B1FC-4DD2-933B-AF1CD9A8A2B5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Patricia</t>
   </si>
@@ -53,10 +53,16 @@
     <t>Github, Logbook, programma van eisen</t>
   </si>
   <si>
-    <t>Character Development, map design</t>
-  </si>
-  <si>
-    <t>unity tutorials, map design</t>
+    <t>Character Development, map design, character design</t>
+  </si>
+  <si>
+    <t>unity tutorials, map design,  character ontwerp</t>
+  </si>
+  <si>
+    <t>08.05.2025</t>
+  </si>
+  <si>
+    <t>Map maken</t>
   </si>
 </sst>
 </file>
@@ -428,18 +434,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A11107-1D30-484E-BDBA-CF761B6D4FBF}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="33.109375" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" customWidth="1"/>
+    <col min="3" max="3" width="49.21875" customWidth="1"/>
+    <col min="4" max="4" width="38.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -467,6 +473,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LogBook.xlsx
+++ b/LogBook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patri\OneDrive\Documenten\Github\PRTA_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13598FEB-D111-4EDC-84B9-23172CA443FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7754E731-0DE4-4AFB-B1EA-FA581DB1AD01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A05CE3E6-B1FC-4DD2-933B-AF1CD9A8A2B5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Patricia</t>
   </si>
@@ -63,6 +63,24 @@
   </si>
   <si>
     <t>Map maken</t>
+  </si>
+  <si>
+    <t>Map maken, character ontwerp, plannen</t>
+  </si>
+  <si>
+    <t>Map maken, documentatie</t>
+  </si>
+  <si>
+    <t>09.05.2025</t>
+  </si>
+  <si>
+    <t>Documentatie, Planning, evaluatie</t>
+  </si>
+  <si>
+    <t>Character ontwerp, evaluatie</t>
+  </si>
+  <si>
+    <t>Map maken, evaluatie, planning</t>
   </si>
 </sst>
 </file>
@@ -434,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A11107-1D30-484E-BDBA-CF761B6D4FBF}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -478,13 +496,27 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/LogBook.xlsx
+++ b/LogBook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patri\OneDrive\Documenten\Github\PRTA_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7754E731-0DE4-4AFB-B1EA-FA581DB1AD01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9D96E2-0007-423A-90FB-48876739739B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A05CE3E6-B1FC-4DD2-933B-AF1CD9A8A2B5}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{A05CE3E6-B1FC-4DD2-933B-AF1CD9A8A2B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>Patricia</t>
   </si>
@@ -81,6 +81,21 @@
   </si>
   <si>
     <t>Map maken, evaluatie, planning</t>
+  </si>
+  <si>
+    <t>12.05.2025</t>
+  </si>
+  <si>
+    <t>Begin aan Unity</t>
+  </si>
+  <si>
+    <t>Character ontwerp</t>
+  </si>
+  <si>
+    <t>13.05.2025</t>
+  </si>
+  <si>
+    <t>beweging in Unity, Scenes koppelen</t>
   </si>
 </sst>
 </file>
@@ -452,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A11107-1D30-484E-BDBA-CF761B6D4FBF}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -519,6 +534,31 @@
         <v>13</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LogBook.xlsx
+++ b/LogBook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patri\OneDrive\Documenten\Github\PRTA_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7754E731-0DE4-4AFB-B1EA-FA581DB1AD01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C4AACB-4E34-49CE-9E3E-08E96D608E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A05CE3E6-B1FC-4DD2-933B-AF1CD9A8A2B5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Patricia</t>
   </si>
@@ -81,6 +81,51 @@
   </si>
   <si>
     <t>Map maken, evaluatie, planning</t>
+  </si>
+  <si>
+    <t>12.05.2025</t>
+  </si>
+  <si>
+    <t>begin unity</t>
+  </si>
+  <si>
+    <t>begin aan unity</t>
+  </si>
+  <si>
+    <t>character ontwerp</t>
+  </si>
+  <si>
+    <t>13.05.2025</t>
+  </si>
+  <si>
+    <t>Character ontwerp</t>
+  </si>
+  <si>
+    <t>14.05.2025</t>
+  </si>
+  <si>
+    <t>scene aan elkaar gekoppeld in unity, player movement, mappen geimplementeerd</t>
+  </si>
+  <si>
+    <t>documentatie ingevuld/ ERD</t>
+  </si>
+  <si>
+    <t>Documentatie ingevuld/ verzonden, ERD gemaakt, unvisible walls in Unity</t>
+  </si>
+  <si>
+    <t>15.05.2025</t>
+  </si>
+  <si>
+    <t>16.05.2025</t>
+  </si>
+  <si>
+    <t>Niewe scene toegevoegd in Unity</t>
+  </si>
+  <si>
+    <t>evaulatie</t>
+  </si>
+  <si>
+    <t>evaluatie</t>
   </si>
 </sst>
 </file>
@@ -452,17 +497,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A11107-1D30-484E-BDBA-CF761B6D4FBF}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="33.109375" customWidth="1"/>
-    <col min="3" max="3" width="49.21875" customWidth="1"/>
+    <col min="3" max="3" width="67" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -519,6 +564,64 @@
         <v>13</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LogBook.xlsx
+++ b/LogBook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patri\OneDrive\Documenten\Github\PRTA_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9D96E2-0007-423A-90FB-48876739739B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C4AACB-4E34-49CE-9E3E-08E96D608E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{A05CE3E6-B1FC-4DD2-933B-AF1CD9A8A2B5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A05CE3E6-B1FC-4DD2-933B-AF1CD9A8A2B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Patricia</t>
   </si>
@@ -86,16 +86,46 @@
     <t>12.05.2025</t>
   </si>
   <si>
-    <t>Begin aan Unity</t>
+    <t>begin unity</t>
+  </si>
+  <si>
+    <t>begin aan unity</t>
+  </si>
+  <si>
+    <t>character ontwerp</t>
+  </si>
+  <si>
+    <t>13.05.2025</t>
   </si>
   <si>
     <t>Character ontwerp</t>
   </si>
   <si>
-    <t>13.05.2025</t>
-  </si>
-  <si>
-    <t>beweging in Unity, Scenes koppelen</t>
+    <t>14.05.2025</t>
+  </si>
+  <si>
+    <t>scene aan elkaar gekoppeld in unity, player movement, mappen geimplementeerd</t>
+  </si>
+  <si>
+    <t>documentatie ingevuld/ ERD</t>
+  </si>
+  <si>
+    <t>Documentatie ingevuld/ verzonden, ERD gemaakt, unvisible walls in Unity</t>
+  </si>
+  <si>
+    <t>15.05.2025</t>
+  </si>
+  <si>
+    <t>16.05.2025</t>
+  </si>
+  <si>
+    <t>Niewe scene toegevoegd in Unity</t>
+  </si>
+  <si>
+    <t>evaulatie</t>
+  </si>
+  <si>
+    <t>evaluatie</t>
   </si>
 </sst>
 </file>
@@ -467,17 +497,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A11107-1D30-484E-BDBA-CF761B6D4FBF}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="33.109375" customWidth="1"/>
-    <col min="3" max="3" width="49.21875" customWidth="1"/>
+    <col min="3" max="3" width="67" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -542,21 +572,54 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/LogBook.xlsx
+++ b/LogBook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patri\OneDrive\Documenten\Github\PRTA_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C4AACB-4E34-49CE-9E3E-08E96D608E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2053EEDB-15AA-4496-878D-33242C3257CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A05CE3E6-B1FC-4DD2-933B-AF1CD9A8A2B5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>Patricia</t>
   </si>
@@ -126,6 +126,33 @@
   </si>
   <si>
     <t>evaluatie</t>
+  </si>
+  <si>
+    <t>19.05.2025</t>
+  </si>
+  <si>
+    <t>20.05.2025</t>
+  </si>
+  <si>
+    <t>21.05.2025</t>
+  </si>
+  <si>
+    <t>22.05.2025</t>
+  </si>
+  <si>
+    <t>Main menu in Unity, Character kleuren</t>
+  </si>
+  <si>
+    <t>mappen beter gemaakt in Unity</t>
+  </si>
+  <si>
+    <t>character kleuren</t>
+  </si>
+  <si>
+    <t>assets in Unity gekeken</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -497,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A11107-1D30-484E-BDBA-CF761B6D4FBF}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -622,6 +649,50 @@
         <v>29</v>
       </c>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LogBook.xlsx
+++ b/LogBook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patri\OneDrive\Documenten\Github\PRTA_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C4AACB-4E34-49CE-9E3E-08E96D608E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EAFF730-B76E-42B8-8EF6-8B60DE35EEB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A05CE3E6-B1FC-4DD2-933B-AF1CD9A8A2B5}"/>
+    <workbookView xWindow="2220" yWindow="2688" windowWidth="20820" windowHeight="8880" xr2:uid="{A05CE3E6-B1FC-4DD2-933B-AF1CD9A8A2B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
   <si>
     <t>Patricia</t>
   </si>
@@ -126,6 +126,78 @@
   </si>
   <si>
     <t>evaluatie</t>
+  </si>
+  <si>
+    <t>19.05.2025</t>
+  </si>
+  <si>
+    <t>20.05.2025</t>
+  </si>
+  <si>
+    <t>21.05.2025</t>
+  </si>
+  <si>
+    <t>22.05.2025</t>
+  </si>
+  <si>
+    <t>23.05.2025</t>
+  </si>
+  <si>
+    <t>26.05.2025</t>
+  </si>
+  <si>
+    <t>27.05.2025</t>
+  </si>
+  <si>
+    <t>28.05.2025</t>
+  </si>
+  <si>
+    <t>Main menu gemaakt en enemies geimplementeerd</t>
+  </si>
+  <si>
+    <t>dingen besproken over het game</t>
+  </si>
+  <si>
+    <t>dingen besproken over het game en character ontwerp</t>
+  </si>
+  <si>
+    <t>dingen besproken over het game, schets gemaakt voor en scene</t>
+  </si>
+  <si>
+    <t>map die we donderdag kwijt raakte opnieuw gemaakt</t>
+  </si>
+  <si>
+    <t>character design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">documentatie </t>
+  </si>
+  <si>
+    <t xml:space="preserve">character design </t>
+  </si>
+  <si>
+    <t>scene editten</t>
+  </si>
+  <si>
+    <t>eerste character af</t>
+  </si>
+  <si>
+    <t>probleem oplossen met github</t>
+  </si>
+  <si>
+    <t>onderzoek doen</t>
+  </si>
+  <si>
+    <t>functies in unity bekeken</t>
+  </si>
+  <si>
+    <t>map in Unity gezet, weer probleem met github proberen op te lossen</t>
+  </si>
+  <si>
+    <t>gediscuseerd over scene</t>
+  </si>
+  <si>
+    <t>02.06.2025</t>
   </si>
 </sst>
 </file>
@@ -497,18 +569,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A11107-1D30-484E-BDBA-CF761B6D4FBF}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="33.109375" customWidth="1"/>
+    <col min="2" max="2" width="52.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="67" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" customWidth="1"/>
+    <col min="4" max="4" width="44.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -622,6 +694,108 @@
         <v>29</v>
       </c>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
